--- a/TRNMNT/wwwroot/FileSamples/FightersListSample.xlsx
+++ b/TRNMNT/wwwroot/FileSamples/FightersListSample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onatsky\BjjApp\TRNMNT\DocSamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onatsky\BjjApp\TRNMNT\wwwroot\FileSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
   <si>
     <t>First Name</t>
   </si>
@@ -253,6 +253,75 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renato </t>
+  </si>
+  <si>
+    <t>Cordosa</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Langhi</t>
+  </si>
+  <si>
+    <t>Masumeci</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Evangelista</t>
+  </si>
+  <si>
+    <t>Keenan</t>
+  </si>
+  <si>
+    <t>Cornelius</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Danaher</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>DeBlass</t>
+  </si>
+  <si>
+    <t>Davi</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Nogueira</t>
+  </si>
+  <si>
+    <t>Jacare</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Satoshi</t>
   </si>
 </sst>
 </file>
@@ -577,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1269,6 +1338,266 @@
         <v>8</v>
       </c>
     </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="4">
+        <v>29930</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="4">
+        <v>29565</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="4">
+        <v>29921</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="4">
+        <v>29922</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="4">
+        <v>29923</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4">
+        <v>29924</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="4">
+        <v>29925</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="4">
+        <v>29926</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="4">
+        <v>29927</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="4">
+        <v>29928</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="4">
+        <v>29929</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="4">
+        <v>29930</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="4">
+        <v>29565</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TRNMNT/wwwroot/FileSamples/FightersListSample.xlsx
+++ b/TRNMNT/wwwroot/FileSamples/FightersListSample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="120">
   <si>
     <t>First Name</t>
   </si>
@@ -322,6 +322,63 @@
   </si>
   <si>
     <t>Satoshi</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Demian</t>
+  </si>
+  <si>
+    <t>Maia</t>
+  </si>
+  <si>
+    <t>Rodolfo</t>
+  </si>
+  <si>
+    <t>Vieira</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Najmi</t>
+  </si>
+  <si>
+    <t>Shinia</t>
+  </si>
+  <si>
+    <t>Aoki</t>
+  </si>
+  <si>
+    <t>Vitor</t>
+  </si>
+  <si>
+    <t>Shaolin</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>Agazarm</t>
+  </si>
+  <si>
+    <t>Ievgen</t>
+  </si>
+  <si>
+    <t>Chechuga</t>
+  </si>
+  <si>
+    <t>100+</t>
+  </si>
+  <si>
+    <t>Rnato</t>
+  </si>
+  <si>
+    <t>Sobral</t>
   </si>
 </sst>
 </file>
@@ -646,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1598,6 +1655,186 @@
         <v>8</v>
       </c>
     </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="4">
+        <v>29928</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="4">
+        <v>29929</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="4">
+        <v>29930</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="4">
+        <v>29565</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="4">
+        <v>29929</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="4">
+        <v>29930</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="4">
+        <v>29565</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="4">
+        <v>29930</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="4">
+        <v>29565</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TRNMNT/wwwroot/FileSamples/FightersListSample.xlsx
+++ b/TRNMNT/wwwroot/FileSamples/FightersListSample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onatsky\BjjApp\TRNMNT\wwwroot\FileSamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Temp Files\BjjApp\TRNMNT\wwwroot\FileSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="123">
   <si>
     <t>First Name</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>Sobral</t>
+  </si>
+  <si>
+    <t>IsMember</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -703,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -715,7 +724,7 @@
     <col min="5" max="5" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,8 +743,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -754,8 +766,11 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -774,8 +789,11 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -794,8 +812,11 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -814,8 +835,11 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -834,8 +858,11 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -854,8 +881,11 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -874,8 +904,11 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -894,8 +927,11 @@
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -914,8 +950,11 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -934,8 +973,11 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -954,8 +996,11 @@
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -974,8 +1019,11 @@
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -994,8 +1042,11 @@
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1014,8 +1065,11 @@
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1034,8 +1088,11 @@
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1054,8 +1111,11 @@
       <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1074,8 +1134,11 @@
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1094,8 +1157,11 @@
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1114,8 +1180,11 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1134,8 +1203,11 @@
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1154,8 +1226,11 @@
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1174,8 +1249,11 @@
       <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -1194,8 +1272,11 @@
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -1214,8 +1295,11 @@
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -1234,8 +1318,11 @@
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -1254,8 +1341,11 @@
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -1274,8 +1364,11 @@
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -1294,8 +1387,11 @@
       <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -1314,8 +1410,11 @@
       <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1334,8 +1433,11 @@
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -1354,8 +1456,11 @@
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -1374,8 +1479,11 @@
       <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1394,8 +1502,11 @@
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
@@ -1414,8 +1525,11 @@
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
@@ -1434,8 +1548,11 @@
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -1454,8 +1571,11 @@
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -1474,8 +1594,11 @@
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -1494,8 +1617,11 @@
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -1514,8 +1640,11 @@
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -1534,8 +1663,11 @@
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
@@ -1554,8 +1686,11 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -1574,8 +1709,11 @@
       <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -1594,8 +1732,11 @@
       <c r="F44" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
@@ -1614,8 +1755,11 @@
       <c r="F45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -1634,8 +1778,11 @@
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
@@ -1654,8 +1801,11 @@
       <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>103</v>
       </c>
@@ -1674,8 +1824,11 @@
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
@@ -1694,8 +1847,11 @@
       <c r="F49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
@@ -1714,8 +1870,11 @@
       <c r="F50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>109</v>
       </c>
@@ -1734,8 +1893,11 @@
       <c r="F51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G51" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -1754,8 +1916,11 @@
       <c r="F52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -1774,8 +1939,11 @@
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -1794,8 +1962,11 @@
       <c r="F54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
@@ -1814,8 +1985,11 @@
       <c r="F55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
@@ -1833,6 +2007,9 @@
       </c>
       <c r="F56" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
